--- a/Lambda_Costs.xlsx
+++ b/Lambda_Costs.xlsx
@@ -8,22 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliesuit/ResearchFiles2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC2F25-EB7A-D347-A905-E735B372E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8B7B4-A377-AF49-8B1A-7526F39A1DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{4918CCA8-ED4C-7E48-A4FB-7007D46A846C}"/>
+    <workbookView xWindow="10760" yWindow="460" windowWidth="28040" windowHeight="16440" activeTab="4" xr2:uid="{4918CCA8-ED4C-7E48-A4FB-7007D46A846C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lambda Calculations" sheetId="1" r:id="rId1"/>
+    <sheet name="Hidden Layer Calcs" sheetId="2" r:id="rId2"/>
+    <sheet name="General Info" sheetId="4" r:id="rId3"/>
+    <sheet name="TNC Hidden Layer" sheetId="6" r:id="rId4"/>
+    <sheet name="TNC Lambda" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$52</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$2:$E$52</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$52</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'TNC Lambda'!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'TNC Lambda'!$D$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'TNC Lambda'!$D$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'TNC Lambda'!$D$2:$D$14</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'TNC Lambda'!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'TNC Lambda'!$D$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'TNC Lambda'!$D$2:$D$14</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'TNC Lambda'!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'TNC Lambda'!$D$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'TNC Lambda'!$D$2:$D$14</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'TNC Lambda'!$D$2:$D$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'TNC Lambda'!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'TNC Lambda'!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'TNC Lambda'!$D$2:$D$14</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'TNC Lambda'!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'TNC Lambda'!$D$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'TNC Lambda'!$D$2:$D$14</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'TNC Lambda'!$A$2:$A$14</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Lambda</t>
   </si>
@@ -60,6 +74,87 @@
   <si>
     <t>Net Diff</t>
   </si>
+  <si>
+    <t>Lambda: 2.2 or 2.3</t>
+  </si>
+  <si>
+    <t>Hidden Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations: </t>
+  </si>
+  <si>
+    <t>Net diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given Theta Vals: </t>
+  </si>
+  <si>
+    <t>Training Cost = 0.4797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generated Theta Vals: </t>
+  </si>
+  <si>
+    <t>Training Cost = 0.5061</t>
+  </si>
+  <si>
+    <t>Testing Cost = 0.6828</t>
+  </si>
+  <si>
+    <t>Iterations = 1000</t>
+  </si>
+  <si>
+    <t>Hidden Layer Number</t>
+  </si>
+  <si>
+    <t>2 Training</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>3 Training</t>
+  </si>
+  <si>
+    <t>3 Testing</t>
+  </si>
+  <si>
+    <t>4 Training</t>
+  </si>
+  <si>
+    <t>4 Testing</t>
+  </si>
+  <si>
+    <t>5 Training</t>
+  </si>
+  <si>
+    <t>5 Testing</t>
+  </si>
+  <si>
+    <t>Avg Training</t>
+  </si>
+  <si>
+    <t>Avg Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success Run #s: </t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Not 1</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>200 Inputs, Lambda = 4 =&gt; 0.4881 Training, 0.654 Testing</t>
+  </si>
 </sst>
 </file>
 
@@ -74,12 +169,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,8 +201,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,7 +278,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Lambda Calculations'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -203,7 +313,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:f>'Lambda Calculations'!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -365,7 +475,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$52</c:f>
+              <c:f>'Lambda Calculations'!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -767,7 +877,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Lambda Calculations'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -802,7 +912,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:f>'Lambda Calculations'!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -964,7 +1074,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$52</c:f>
+              <c:f>'Lambda Calculations'!$C$2:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1366,7 +1476,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Lambda Calculations'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1401,7 +1511,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:f>'Lambda Calculations'!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1563,7 +1673,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$52</c:f>
+              <c:f>'Lambda Calculations'!$E$2:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1910,6 +2020,1561 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hidden Layer Calcs'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hidden Layer Calcs'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hidden Layer Calcs'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.4239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.911</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0710000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2928-374A-B698-FECBF5AD66C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="655972383"/>
+        <c:axId val="655974031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="655972383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655974031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="655974031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655972383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hidden Layer Calcs'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Testing Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hidden Layer Calcs'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hidden Layer Calcs'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A37D-E24F-A028-55077117730D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="597788831"/>
+        <c:axId val="655935295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="597788831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655935295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="655935295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597788831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lambda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Test and Training Costs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TNC Lambda'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'TNC Lambda'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'TNC Lambda'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>5.7449999999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56779999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61814000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F27B-6042-BBA2-B4020CA3152F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TNC Lambda'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Testing Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'TNC Lambda'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'TNC Lambda'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>14.670999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89859999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76439999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72840000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73729999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74229999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F27B-6042-BBA2-B4020CA3152F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="594998031"/>
+        <c:axId val="602967503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="594998031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602967503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="602967503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594998031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TNC Lambda'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TNC Lambda'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TNC Lambda'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>14.6709994255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66359999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29219999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21630000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18870000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16470000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14389999999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12415999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA8D-5D4A-9474-4BB747178D00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="664564079"/>
+        <c:axId val="664185823"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="664564079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664185823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664185823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664564079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2030,6 +3695,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3559,6 +5384,2070 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3683,6 +7572,160 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E2CDAF-6041-5F42-92BD-F362C945CFDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5316112-47B4-C24E-B2F9-A98E22A4BFF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000D5C12-6D45-6040-8BED-F47C560A2BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE934F8-0491-0744-BB21-1BE73FB1ABF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3988,10 +8031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA2A07-24AC-1342-907D-75E773EC9AF4}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3999,9 +8042,10 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4018,7 +8062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4036,8 +8080,19 @@
         <f>ABS(D2)</f>
         <v>0.42369999999999997</v>
       </c>
+      <c r="F2">
+        <f>MIN(C2:C52)</f>
+        <v>0.5958</v>
+      </c>
+      <c r="G2">
+        <f>MIN(E2:E52)</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -4056,7 +8111,7 @@
         <v>0.38990000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -4075,7 +8130,7 @@
         <v>0.37039999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -4094,7 +8149,7 @@
         <v>0.35580000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -4113,7 +8168,7 @@
         <v>0.34800000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -4132,7 +8187,7 @@
         <v>0.25719999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -4151,7 +8206,7 @@
         <v>0.24429999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -4170,7 +8225,7 @@
         <v>0.23089999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -4189,7 +8244,7 @@
         <v>0.24113000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -4208,7 +8263,7 @@
         <v>0.22520000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4227,7 +8282,7 @@
         <v>0.20910000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -4246,7 +8301,7 @@
         <v>0.19319999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -4265,7 +8320,7 @@
         <v>0.17739999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -4284,7 +8339,7 @@
         <v>0.16170000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.4</v>
       </c>
@@ -4443,7 +8498,7 @@
       <c r="B24">
         <v>0.5776</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.5958</v>
       </c>
       <c r="D24">
@@ -4456,7 +8511,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="B25">
@@ -4488,7 +8543,7 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <f t="shared" si="1"/>
         <v>4.0000000000000036E-3</v>
       </c>
@@ -4985,6 +9040,768 @@
       <c r="E52">
         <f t="shared" si="1"/>
         <v>0.28139999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B80B7D3-4067-8342-8D91-062DF0897E4E}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.458</v>
+      </c>
+      <c r="D2">
+        <f xml:space="preserve"> ABS((B2-C2))</f>
+        <v>3.400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0" xml:space="preserve"> ABS((B3-C3))</f>
+        <v>3.2000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>1.2823</v>
+      </c>
+      <c r="C4">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4.3700000000000072E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>1.419</v>
+      </c>
+      <c r="C5">
+        <v>1.48</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999943E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>1.552</v>
+      </c>
+      <c r="C6">
+        <v>1.575</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999909E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>1.911</v>
+      </c>
+      <c r="C7">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="C8">
+        <v>2.1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999915E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A82E5BF-B0A8-8840-9DF5-A449C15AAB90}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68AEC10-16AE-B24F-9D2E-2505C70779F7}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0.38529999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="F2">
+        <v>0.39479999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="H2">
+        <v>0.39510000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.38179999999999997</v>
+      </c>
+      <c r="K2">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="L2">
+        <f xml:space="preserve"> (B2+D2+F2+H2+J2)/5</f>
+        <v>0.38716</v>
+      </c>
+      <c r="M2">
+        <f>(C2+E2+G2+I2+K2)/5</f>
+        <v>0.83072000000000001</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.3493</v>
+      </c>
+      <c r="G3">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="J3">
+        <v>0.35189999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.755</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="0" xml:space="preserve"> (B3+D3+F3+H3+J3)/5</f>
+        <v>0.34516000000000002</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="1">(C3+E3+G3+I3+K3)/5</f>
+        <v>0.75117999999999996</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="D4">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.7712</v>
+      </c>
+      <c r="H4">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.32528000000000007</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0.73249999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>75</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>0.3206</v>
+      </c>
+      <c r="C7">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.3196</v>
+      </c>
+      <c r="E7">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.12803999999999999</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.28681999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>150</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>0.31540000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.12672</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0.29486000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>250</v>
+      </c>
+      <c r="B10">
+        <v>0.3206</v>
+      </c>
+      <c r="C10">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.12908</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0.27751999999999999</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>300</v>
+      </c>
+      <c r="B11">
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.71709999999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.3221</v>
+      </c>
+      <c r="E11">
+        <v>0.70340000000000003</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.12831999999999999</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0.28410000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB68AAE-FB80-404E-BF99-3542670DD320}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.7449999999999996E-7</v>
+      </c>
+      <c r="C2">
+        <v>14.670999999999999</v>
+      </c>
+      <c r="D2">
+        <f xml:space="preserve"> ABS((B2-C2))</f>
+        <v>14.6709994255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>0.1497</v>
+      </c>
+      <c r="C3">
+        <v>1.111</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D14" si="0" xml:space="preserve"> ABS((B3-C3))</f>
+        <v>0.96130000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.66359999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.50890000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.3538</v>
+      </c>
+      <c r="C6">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.41059999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.7419</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.34139999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.29219999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9">
+        <v>0.4763</v>
+      </c>
+      <c r="C9">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.25130000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21630000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="C11">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.18870000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.16470000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.73729999999999996</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.14389999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.61814000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.12415999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Lambda_Costs.xlsx
+++ b/Lambda_Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliesuit/ResearchFiles2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8B7B4-A377-AF49-8B1A-7526F39A1DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1747E0-071B-3E4B-8B15-82AB20A614D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10760" yWindow="460" windowWidth="28040" windowHeight="16440" activeTab="4" xr2:uid="{4918CCA8-ED4C-7E48-A4FB-7007D46A846C}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Lambda Calculations" sheetId="1" r:id="rId1"/>
     <sheet name="Hidden Layer Calcs" sheetId="2" r:id="rId2"/>
     <sheet name="General Info" sheetId="4" r:id="rId3"/>
-    <sheet name="TNC Hidden Layer" sheetId="6" r:id="rId4"/>
-    <sheet name="TNC Lambda" sheetId="7" r:id="rId5"/>
+    <sheet name="TNC Lambda" sheetId="7" r:id="rId4"/>
+    <sheet name="TNC Hidden Layer" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'TNC Lambda'!$A$2:$A$14</definedName>
@@ -9237,11 +9237,244 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68AEC10-16AE-B24F-9D2E-2505C70779F7}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB68AAE-FB80-404E-BF99-3542670DD320}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.7449999999999996E-7</v>
+      </c>
+      <c r="C2">
+        <v>14.670999999999999</v>
+      </c>
+      <c r="D2">
+        <f xml:space="preserve"> ABS((B2-C2))</f>
+        <v>14.6709994255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>0.1497</v>
+      </c>
+      <c r="C3">
+        <v>1.111</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D14" si="0" xml:space="preserve"> ABS((B3-C3))</f>
+        <v>0.96130000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.66359999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.50890000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.3538</v>
+      </c>
+      <c r="C6">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.41059999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.7419</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.34139999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.29219999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9">
+        <v>0.4763</v>
+      </c>
+      <c r="C9">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.25130000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21630000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="C11">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.18870000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.16470000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.73729999999999996</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.14389999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.61814000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.12415999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68AEC10-16AE-B24F-9D2E-2505C70779F7}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9572,240 +9805,12 @@
         <v>0.28410000000000002</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB68AAE-FB80-404E-BF99-3542670DD320}">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5.7449999999999996E-7</v>
-      </c>
-      <c r="C2">
-        <v>14.670999999999999</v>
-      </c>
-      <c r="D2">
-        <f xml:space="preserve"> ABS((B2-C2))</f>
-        <v>14.6709994255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0.5</v>
-      </c>
-      <c r="B3">
-        <v>0.1497</v>
-      </c>
-      <c r="C3">
-        <v>1.111</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D14" si="0" xml:space="preserve"> ABS((B3-C3))</f>
-        <v>0.96130000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="C4">
-        <v>0.89859999999999995</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.66359999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1.5</v>
-      </c>
-      <c r="B5">
-        <v>0.30030000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.80920000000000003</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.50890000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.3538</v>
-      </c>
-      <c r="C6">
-        <v>0.76439999999999997</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.41059999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2.5</v>
-      </c>
-      <c r="B7">
-        <v>0.40050000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.7419</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.34139999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0.43980000000000002</v>
-      </c>
-      <c r="C8">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.29219999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3.5</v>
-      </c>
-      <c r="B9">
-        <v>0.4763</v>
-      </c>
-      <c r="C9">
-        <v>0.72760000000000002</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.25130000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.50919999999999999</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.72550000000000003</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.21630000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4.5</v>
-      </c>
-      <c r="B11">
-        <v>0.53969999999999996</v>
-      </c>
-      <c r="C11">
-        <v>0.72840000000000005</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.18870000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>0.56779999999999997</v>
-      </c>
-      <c r="C12">
-        <v>0.73250000000000004</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.16470000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>5.5</v>
-      </c>
-      <c r="B13">
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="C13">
-        <v>0.73729999999999996</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.14389999999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>0.61814000000000002</v>
-      </c>
-      <c r="C14">
-        <v>0.74229999999999996</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.12415999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>